--- a/printers_v2.xlsx
+++ b/printers_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9795" tabRatio="855" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9795" tabRatio="855" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="107">
   <si>
     <t>Комната</t>
   </si>
@@ -248,7 +248,10 @@
     <t>01.08.2022 17:37</t>
   </si>
   <si>
-    <t>02.08.2022 15:36</t>
+    <t>02.08.2022 17:00</t>
+  </si>
+  <si>
+    <t>03.08.2022 10:19</t>
   </si>
   <si>
     <t>KONTRAK</t>
@@ -317,9 +320,6 @@
     <t>TK-1170S</t>
   </si>
   <si>
-    <t>02.08.2022 15:37</t>
-  </si>
-  <si>
     <t>SEC30CDA73402B9</t>
   </si>
   <si>
@@ -329,6 +329,9 @@
     <t>Black Toner Cartridge S/N:CRUM-14082317808</t>
   </si>
   <si>
+    <t>03.08.2022 10:12</t>
+  </si>
+  <si>
     <t>SEC30CDA737D7A3</t>
   </si>
   <si>
@@ -336,6 +339,9 @@
   </si>
   <si>
     <t>Black Toner Cartridge S/N:CRUM-14060615078</t>
+  </si>
+  <si>
+    <t>02.08.2022 16:47</t>
   </si>
   <si>
     <t>SEC30CDA737D7BF</t>
@@ -724,9 +730,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,9 +740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -770,6 +770,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,13 +940,16 @@
                 <c:pt idx="1">
                   <c:v>0.39</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3162-404A-B207-CDAF784C2A24}"/>
+              <c16:uniqueId val="{00000000-99D7-4B28-BD41-EA1D0DABCB6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -990,12 +999,15 @@
             <c:strRef>
               <c:f>AL75023437!$A$16:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1012,13 +1024,16 @@
                 <c:pt idx="1">
                   <c:v>39323</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>39323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3162-404A-B207-CDAF784C2A24}"/>
+              <c16:uniqueId val="{00000001-99D7-4B28-BD41-EA1D0DABCB6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1350,13 +1365,16 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F151-4D51-8C07-64A87967ECB1}"/>
+              <c16:uniqueId val="{00000000-2CA5-4694-8E29-449DB18D57A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1406,12 +1424,15 @@
             <c:strRef>
               <c:f>ZDP1BJAF80005JJ!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:37</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1426,7 +1447,10 @@
                   <c:v>54756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54764</c:v>
+                  <c:v>54772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,7 +1458,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F151-4D51-8C07-64A87967ECB1}"/>
+              <c16:uniqueId val="{00000001-2CA5-4694-8E29-449DB18D57A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1768,13 +1792,16 @@
                 <c:pt idx="1">
                   <c:v>0.31</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8BB-4C22-AB64-A6C20C45EF72}"/>
+              <c16:uniqueId val="{00000000-BB3D-426C-9B36-CC2E7D6D8AD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1824,12 +1851,15 @@
             <c:strRef>
               <c:f>ZDP1BJFF9000RLT!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:37</c:v>
+                  <c:v>02.08.2022 16:47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1846,13 +1876,16 @@
                 <c:pt idx="1">
                   <c:v>24684</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>24685</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B8BB-4C22-AB64-A6C20C45EF72}"/>
+              <c16:uniqueId val="{00000001-BB3D-426C-9B36-CC2E7D6D8AD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2185,13 +2218,16 @@
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEC2-43EA-A560-997E245B5729}"/>
+              <c16:uniqueId val="{00000000-C499-4F37-A52D-DA2D061CEC8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2241,12 +2277,15 @@
             <c:strRef>
               <c:f>ZDP1BJFF9000TJP!$A$16:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:37</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2261,7 +2300,10 @@
                   <c:v>60648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60679</c:v>
+                  <c:v>60682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2311,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DEC2-43EA-A560-997E245B5729}"/>
+              <c16:uniqueId val="{00000001-C499-4F37-A52D-DA2D061CEC8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2602,13 +2644,16 @@
                 <c:pt idx="1">
                   <c:v>0.33</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-31EC-472F-9280-8C0460BA95FD}"/>
+              <c16:uniqueId val="{00000000-BE04-480C-9BB7-A19CB69CD105}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2658,12 +2703,15 @@
             <c:strRef>
               <c:f>ZDP1BJFF9000VXY!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:37</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2680,13 +2728,16 @@
                 <c:pt idx="1">
                   <c:v>41367</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>41367</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-31EC-472F-9280-8C0460BA95FD}"/>
+              <c16:uniqueId val="{00000001-BE04-480C-9BB7-A19CB69CD105}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3015,13 +3066,16 @@
                 <c:pt idx="1">
                   <c:v>0.39</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0AD7-4437-80CB-382BB89EF0E4}"/>
+              <c16:uniqueId val="{00000000-57CC-4019-BC6B-08FFF3AC93A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3067,12 +3121,15 @@
             <c:strRef>
               <c:f>CNB1L7J286!$A$16:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3089,13 +3146,16 @@
                 <c:pt idx="1">
                   <c:v>33744</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>33758</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0AD7-4437-80CB-382BB89EF0E4}"/>
+              <c16:uniqueId val="{00000001-57CC-4019-BC6B-08FFF3AC93A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3400,13 +3460,16 @@
                 <c:pt idx="1">
                   <c:v>0.97250000000000003</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97250000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4657-48A4-A096-55775D9A2DA4}"/>
+              <c16:uniqueId val="{00000000-8471-4A92-B0AA-23F52F0C06D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3456,12 +3519,15 @@
             <c:strRef>
               <c:f>E75198L1N182781!$A$16:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3478,13 +3544,16 @@
                 <c:pt idx="1">
                   <c:v>330</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4657-48A4-A096-55775D9A2DA4}"/>
+              <c16:uniqueId val="{00000001-8471-4A92-B0AA-23F52F0C06D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3815,7 +3884,10 @@
                   <c:v>0.49769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4975</c:v>
+                  <c:v>0.49725999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49715999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3895,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62C0-4521-982E-A8069305AEDA}"/>
+              <c16:uniqueId val="{00000000-C335-4D67-B129-54A7BD0CC3BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3873,12 +3945,15 @@
             <c:strRef>
               <c:f>E75373J7N561817!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3893,7 +3968,10 @@
                   <c:v>17607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17612</c:v>
+                  <c:v>17618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3901,7 +3979,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62C0-4521-982E-A8069305AEDA}"/>
+              <c16:uniqueId val="{00000001-C335-4D67-B129-54A7BD0CC3BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4234,13 +4312,16 @@
                 <c:pt idx="1">
                   <c:v>0.82579999999999998</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82579999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CCE9-40D5-8F76-D72B75504D79}"/>
+              <c16:uniqueId val="{00000000-B639-4505-8D6C-50A2EF1B8D51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4290,12 +4371,15 @@
             <c:strRef>
               <c:f>E75373J7N561836!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4312,13 +4396,16 @@
                 <c:pt idx="1">
                   <c:v>6448</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>6448</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CCE9-40D5-8F76-D72B75504D79}"/>
+              <c16:uniqueId val="{00000001-B639-4505-8D6C-50A2EF1B8D51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4651,13 +4738,16 @@
                 <c:pt idx="1">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D4C-4935-A316-670445F6F81D}"/>
+              <c16:uniqueId val="{00000000-5188-47BA-A79E-A651126179B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4707,12 +4797,15 @@
             <c:strRef>
               <c:f>VCF7538360!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4729,13 +4822,16 @@
                 <c:pt idx="1">
                   <c:v>12125</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12125</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D4C-4935-A316-670445F6F81D}"/>
+              <c16:uniqueId val="{00000001-5188-47BA-A79E-A651126179B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5068,13 +5164,16 @@
                 <c:pt idx="1">
                   <c:v>0.65</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7122-4584-8C94-75325FBEDD27}"/>
+              <c16:uniqueId val="{00000000-4A4F-4CAE-B02F-C7EC1E01BA6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5124,12 +5223,15 @@
             <c:strRef>
               <c:f>VCG8887941!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5146,13 +5248,16 @@
                 <c:pt idx="1">
                   <c:v>15157</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>15158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7122-4584-8C94-75325FBEDD27}"/>
+              <c16:uniqueId val="{00000001-4A4F-4CAE-B02F-C7EC1E01BA6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5485,13 +5590,16 @@
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0045-4D99-AD32-9750C3BADA28}"/>
+              <c16:uniqueId val="{00000000-065B-4844-9461-6F31A8DEC8D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5541,12 +5649,15 @@
             <c:strRef>
               <c:f>VCG8Y01076!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:36</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5563,13 +5674,16 @@
                 <c:pt idx="1">
                   <c:v>10094</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>10094</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0045-4D99-AD32-9750C3BADA28}"/>
+              <c16:uniqueId val="{00000001-065B-4844-9461-6F31A8DEC8D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5902,13 +6016,16 @@
                 <c:pt idx="1">
                   <c:v>0.71</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A3BE-42C4-95D4-31459CF612CC}"/>
+              <c16:uniqueId val="{00000000-9E09-4589-918D-DC0162B7FDA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5958,12 +6075,15 @@
             <c:strRef>
               <c:f>VCG9118770!$A$16:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>01.08.2022 17:38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.08.2022 15:37</c:v>
+                  <c:v>02.08.2022 17:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03.08.2022 10:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5980,13 +6100,16 @@
                 <c:pt idx="1">
                   <c:v>783</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>783</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A3BE-42C4-95D4-31459CF612CC}"/>
+              <c16:uniqueId val="{00000001-9E09-4589-918D-DC0162B7FDA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6929,321 +7052,321 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="65">
         <f t="shared" ref="D2:D14" ca="1" si="0">INDIRECT( $B2&amp;"!"&amp;ADDRESS(10, 2))</f>
         <v>0.39</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="64">
         <f t="shared" ref="E2:E14" ca="1" si="1">INDIRECT( $B2&amp;"!"&amp;ADDRESS(11, 2))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.97250000000000003</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4975</v>
-      </c>
-      <c r="E5" s="66">
+        <v>0.49715999999999999</v>
+      </c>
+      <c r="E5" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.82579999999999998</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <f t="shared" ca="1" si="1"/>
         <v>44775</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="64" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7251,8 +7374,8 @@
   <conditionalFormatting sqref="D2:D14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <color rgb="FF63C384"/>
       </dataBar>
     </cfRule>
@@ -7300,37 +7423,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>91</v>
+      <c r="B1" s="74" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>86</v>
+      <c r="B2" s="74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7338,7 +7461,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7346,7 +7469,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7354,7 +7477,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7362,7 +7485,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>7200</v>
       </c>
     </row>
@@ -7370,7 +7493,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>2160</v>
       </c>
     </row>
@@ -7378,7 +7501,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="74">
         <v>10094</v>
       </c>
     </row>
@@ -7402,7 +7525,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -7412,7 +7535,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7435,18 +7558,18 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="48">
         <v>0.3</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>10094</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -7455,41 +7578,47 @@
       <c r="B17" s="7">
         <v>0.3</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="75">
         <v>10094</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="63">
+        <v>10094</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -7497,7 +7626,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -7505,7 +7634,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -7513,7 +7642,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -7521,7 +7650,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -7529,7 +7658,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -7537,7 +7666,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -7545,7 +7674,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -7553,7 +7682,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -7561,7 +7690,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -7569,7 +7698,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -7577,7 +7706,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -7585,7 +7714,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -7593,7 +7722,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -7601,7 +7730,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -7609,7 +7738,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -7617,7 +7746,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -7625,7 +7754,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -7633,7 +7762,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -7667,37 +7796,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>92</v>
+      <c r="B1" s="74" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>86</v>
+      <c r="B2" s="74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7705,7 +7834,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7713,7 +7842,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7721,7 +7850,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7729,7 +7858,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>3600</v>
       </c>
     </row>
@@ -7737,7 +7866,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>2556</v>
       </c>
     </row>
@@ -7745,7 +7874,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="74">
         <v>783</v>
       </c>
     </row>
@@ -7769,7 +7898,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -7779,7 +7908,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7802,61 +7931,67 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="48">
         <v>0.71</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>783</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7">
         <v>0.71</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="75">
         <v>783</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="48">
+        <v>0.71</v>
+      </c>
+      <c r="C18" s="63">
+        <v>783</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -7864,7 +7999,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -7872,7 +8007,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -7880,7 +8015,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -7888,7 +8023,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -7896,7 +8031,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -7904,7 +8039,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -7912,7 +8047,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -7920,7 +8055,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -7928,7 +8063,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -7936,7 +8071,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -7944,7 +8079,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -7952,7 +8087,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -7960,7 +8095,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -7968,7 +8103,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -7976,7 +8111,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -7984,7 +8119,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -7992,7 +8127,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -8000,7 +8135,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -8027,28 +8162,26 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="74" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8056,7 +8189,7 @@
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="74" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8064,7 +8197,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8072,7 +8205,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8080,7 +8213,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8088,15 +8221,15 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>74</v>
+      <c r="B6" s="74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>10000</v>
       </c>
     </row>
@@ -8104,7 +8237,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>10000</v>
       </c>
     </row>
@@ -8112,8 +8245,8 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
-        <v>54764</v>
+      <c r="B9" s="74">
+        <v>54772</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8171,42 +8304,48 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="48">
         <v>0</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>54756</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="65">
-        <v>54764</v>
+      <c r="C17" s="75">
+        <v>54772</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="48">
+        <v>1</v>
+      </c>
+      <c r="C18" s="63">
+        <v>54772</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
@@ -8214,16 +8353,16 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -8231,7 +8370,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -8239,7 +8378,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -8247,7 +8386,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -8255,7 +8394,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -8263,7 +8402,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -8271,7 +8410,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -8279,7 +8418,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -8287,7 +8426,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -8295,7 +8434,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -8303,7 +8442,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -8311,7 +8450,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -8319,7 +8458,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -8327,7 +8466,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -8335,7 +8474,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -8343,7 +8482,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -8351,7 +8490,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -8359,7 +8498,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -8367,7 +8506,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -8375,7 +8514,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="60"/>
+      <c r="C39" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8395,43 +8534,43 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C16" sqref="C16:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>98</v>
+      <c r="B1" s="74" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>99</v>
+      <c r="B2" s="74" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8439,7 +8578,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8447,7 +8586,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8455,15 +8594,15 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>74</v>
+      <c r="B6" s="74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>10000</v>
       </c>
     </row>
@@ -8471,7 +8610,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>3100</v>
       </c>
     </row>
@@ -8479,8 +8618,8 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
-        <v>24684</v>
+      <c r="B9" s="74">
+        <v>24685</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8503,7 +8642,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -8513,7 +8652,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8536,38 +8675,46 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="48">
         <v>0.31</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>24673</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B17" s="7">
         <v>0.31</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="75">
         <v>24684</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="C18" s="74">
+        <v>24685</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
@@ -8575,16 +8722,16 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -8592,7 +8739,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -8600,7 +8747,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -8608,7 +8755,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -8616,7 +8763,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -8624,7 +8771,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -8632,7 +8779,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -8640,7 +8787,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -8648,7 +8795,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -8656,7 +8803,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -8664,7 +8811,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -8672,7 +8819,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -8680,7 +8827,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -8688,7 +8835,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -8696,7 +8843,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -8704,7 +8851,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -8712,7 +8859,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -8720,7 +8867,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -8728,7 +8875,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -8757,37 +8904,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>101</v>
+      <c r="B1" s="74" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>99</v>
+      <c r="B2" s="74" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8795,7 +8942,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8803,7 +8950,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8811,15 +8958,15 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>74</v>
+      <c r="B6" s="74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>10000</v>
       </c>
     </row>
@@ -8827,7 +8974,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>100</v>
       </c>
     </row>
@@ -8835,8 +8982,8 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
-        <v>60679</v>
+      <c r="B9" s="74">
+        <v>60682</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8859,7 +9006,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -8869,7 +9016,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8889,44 +9036,50 @@
       <c r="D15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="46">
         <v>0.01</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="74">
         <v>60648</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7">
         <v>0.01</v>
       </c>
-      <c r="C17" s="65">
-        <v>60679</v>
+      <c r="C17" s="75">
+        <v>60682</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="75">
+        <v>60682</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
@@ -8934,16 +9087,16 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -8951,7 +9104,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -8959,7 +9112,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -8967,7 +9120,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -8975,7 +9128,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -8983,7 +9136,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -8991,7 +9144,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -8999,7 +9152,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -9007,7 +9160,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -9015,7 +9168,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -9023,7 +9176,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -9031,7 +9184,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -9039,7 +9192,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -9047,7 +9200,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -9055,7 +9208,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -9063,7 +9216,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -9071,7 +9224,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -9079,7 +9232,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -9106,8 +9259,8 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="12" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
       <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
@@ -9116,29 +9269,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>101</v>
+      <c r="B1" s="74" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="74" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9146,7 +9299,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9154,7 +9307,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9162,7 +9315,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9170,15 +9323,15 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>74</v>
+      <c r="B6" s="74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>10000</v>
       </c>
     </row>
@@ -9186,7 +9339,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>3300</v>
       </c>
     </row>
@@ -9194,7 +9347,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="74">
         <v>41367</v>
       </c>
     </row>
@@ -9218,7 +9371,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -9228,7 +9381,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9248,44 +9401,50 @@
       <c r="D15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="46">
         <v>0.33</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="74">
         <v>41367</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B17" s="46">
         <v>0.33</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="74">
         <v>41367</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="46">
+        <v>0.33</v>
+      </c>
+      <c r="C18" s="74">
+        <v>41367</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
@@ -9293,16 +9452,16 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -9310,7 +9469,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -9318,7 +9477,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -9326,7 +9485,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -9334,7 +9493,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -9342,7 +9501,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -9350,7 +9509,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -9358,7 +9517,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -9366,7 +9525,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -9374,7 +9533,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -9382,7 +9541,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -9390,7 +9549,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -9398,7 +9557,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -9406,7 +9565,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -9414,7 +9573,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -9422,7 +9581,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -9430,7 +9589,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -9438,7 +9597,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -9446,7 +9605,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -9514,13 +9673,13 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B27"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="75" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="75" customWidth="1"/>
+    <col min="1" max="1" width="39" style="73" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9990,21 +10149,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="17" style="75" customWidth="1"/>
-    <col min="3" max="3" width="29" style="75" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="60" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="17" style="73" customWidth="1"/>
+    <col min="3" max="3" width="29" style="73" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="74" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="74" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="74" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10012,7 +10171,7 @@
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="74" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10020,7 +10179,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10028,7 +10187,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10036,7 +10195,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10044,7 +10203,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10052,7 +10211,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>100</v>
       </c>
     </row>
@@ -10060,7 +10219,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>39</v>
       </c>
     </row>
@@ -10068,7 +10227,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="74">
         <v>39323</v>
       </c>
     </row>
@@ -10122,9 +10281,9 @@
       <c r="D15" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10140,7 +10299,7 @@
       <c r="D16" s="41">
         <v>1</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
@@ -10152,1332 +10311,1338 @@
       <c r="C17" s="15">
         <v>39323</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>2</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64">
+      <c r="A18" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="46">
+        <v>0.39</v>
+      </c>
+      <c r="C18" s="63">
+        <v>39323</v>
+      </c>
+      <c r="D18" s="63">
         <v>3</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>4</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>5</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="7"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>6</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="7"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <v>7</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="7"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>8</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="64">
+      <c r="D24" s="63">
         <v>9</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <v>10</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="7"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="64">
+      <c r="D26" s="63">
         <v>11</v>
       </c>
-      <c r="F26" s="63"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="7"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="64">
+      <c r="D27" s="63">
         <v>12</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="7"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="64">
+      <c r="D28" s="63">
         <v>13</v>
       </c>
-      <c r="F28" s="63"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="7"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="64">
+      <c r="D29" s="63">
         <v>14</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="62"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="64">
+      <c r="D30" s="63">
         <v>15</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="7"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="64">
+      <c r="D31" s="63">
         <v>16</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="7"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="64">
+      <c r="D32" s="63">
         <v>17</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="7"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="64">
+      <c r="D33" s="63">
         <v>18</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="64">
+      <c r="D34" s="63">
         <v>19</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="7"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="64">
+      <c r="D35" s="63">
         <v>20</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="7"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="64">
+      <c r="D36" s="63">
         <v>21</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="7"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="64">
+      <c r="D37" s="63">
         <v>22</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="7"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="64">
+      <c r="D38" s="63">
         <v>23</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64">
+      <c r="C39" s="63"/>
+      <c r="D39" s="63">
         <v>24</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64">
+      <c r="C40" s="63"/>
+      <c r="D40" s="63">
         <v>25</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="46"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64">
+      <c r="C41" s="63"/>
+      <c r="D41" s="63">
         <v>26</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64">
+      <c r="C42" s="63"/>
+      <c r="D42" s="63">
         <v>27</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64">
+      <c r="C43" s="63"/>
+      <c r="D43" s="63">
         <v>28</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64">
+      <c r="C44" s="63"/>
+      <c r="D44" s="63">
         <v>29</v>
       </c>
-      <c r="F44" s="63"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64">
+      <c r="C45" s="63"/>
+      <c r="D45" s="63">
         <v>30</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="37"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64">
+      <c r="C46" s="63"/>
+      <c r="D46" s="63">
         <v>31</v>
       </c>
-      <c r="F46" s="63"/>
+      <c r="F46" s="62"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64">
+      <c r="C47" s="63"/>
+      <c r="D47" s="63">
         <v>32</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64">
+      <c r="C48" s="63"/>
+      <c r="D48" s="63">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="60"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="74"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="60"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="74"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="37"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="60"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="74"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="60"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="74"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="46"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="60"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="74"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="46"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="60"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="74"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
       <c r="B55" s="46"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="60"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="74"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="60"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="74"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="37"/>
       <c r="B57" s="46"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="60"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="37"/>
       <c r="B58" s="46"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="60"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="74"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="37"/>
       <c r="B59" s="46"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="60"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="74"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="37"/>
       <c r="B60" s="46"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="60"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="74"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="37"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="60"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="74"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="37"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="60"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="74"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="37"/>
       <c r="B63" s="46"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="60"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="74"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="37"/>
       <c r="B64" s="34"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="37"/>
       <c r="B65" s="34"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="37"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="37"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="37"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="37"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="37"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="37"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="37"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="37"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="37"/>
       <c r="B75" s="34"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="37"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="37"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="37"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="37"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="37"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="37"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="37"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="37"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="37"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
       <c r="B85" s="34"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="37"/>
       <c r="B86" s="34"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="37"/>
       <c r="B87" s="34"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="37"/>
       <c r="B88" s="34"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
       <c r="B89" s="34"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="37"/>
       <c r="B90" s="34"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="37"/>
       <c r="B91" s="34"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="37"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="37"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="37"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="37"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="37"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="37"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="37"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="37"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="37"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="37"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="37"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="37"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="37"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="37"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="37"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="37"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="37"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="37"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="37"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="60"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="37"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="60"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="60"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="74"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
+      <c r="B127" s="74"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="60"/>
+      <c r="B128" s="74"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="60"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
+      <c r="B130" s="74"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
+      <c r="B137" s="74"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="60"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
+      <c r="B139" s="74"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="42"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="42"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="60"/>
+      <c r="B141" s="74"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="42"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="42"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="60"/>
-      <c r="D143" s="60"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="42"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
+      <c r="B144" s="74"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="42"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="60"/>
+      <c r="B145" s="74"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="42"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="42"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="60"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="42"/>
-      <c r="B148" s="60"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="60"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="42"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="60"/>
+      <c r="B149" s="74"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="42"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="42"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
+      <c r="B151" s="74"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="42"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="60"/>
+      <c r="B152" s="74"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="42"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
+      <c r="B153" s="74"/>
+      <c r="C153" s="74"/>
+      <c r="D153" s="74"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="42"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="42"/>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
-      <c r="D155" s="60"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="42"/>
-      <c r="B156" s="60"/>
-      <c r="C156" s="60"/>
-      <c r="D156" s="60"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="42"/>
-      <c r="B157" s="60"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="60"/>
+      <c r="B157" s="74"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="42"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="60"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="42"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="42"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="60"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="42"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
+      <c r="B161" s="74"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="42"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="60"/>
-      <c r="D162" s="60"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="42"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="60"/>
-      <c r="D163" s="60"/>
+      <c r="B163" s="74"/>
+      <c r="C163" s="74"/>
+      <c r="D163" s="74"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="42"/>
-      <c r="B164" s="60"/>
-      <c r="C164" s="60"/>
-      <c r="D164" s="60"/>
+      <c r="B164" s="74"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="42"/>
-      <c r="B165" s="60"/>
-      <c r="C165" s="60"/>
-      <c r="D165" s="60"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="42"/>
-      <c r="B166" s="60"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="60"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="42"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="60"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="42"/>
-      <c r="B168" s="60"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="42"/>
-      <c r="B169" s="60"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="60"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="42"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="60"/>
+      <c r="B170" s="74"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="42"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="60"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="42"/>
-      <c r="B172" s="60"/>
-      <c r="C172" s="60"/>
-      <c r="D172" s="60"/>
+      <c r="B172" s="74"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="42"/>
-      <c r="B173" s="60"/>
-      <c r="C173" s="60"/>
-      <c r="D173" s="60"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="42"/>
-      <c r="B174" s="60"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
+      <c r="B174" s="74"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="74"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="42"/>
-      <c r="B175" s="60"/>
-      <c r="C175" s="60"/>
-      <c r="D175" s="60"/>
+      <c r="B175" s="74"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="74"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="42"/>
-      <c r="B176" s="60"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="60"/>
+      <c r="B176" s="74"/>
+      <c r="C176" s="74"/>
+      <c r="D176" s="74"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="42"/>
-      <c r="B177" s="60"/>
-      <c r="C177" s="60"/>
-      <c r="D177" s="60"/>
+      <c r="B177" s="74"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="42"/>
-      <c r="B178" s="60"/>
-      <c r="C178" s="60"/>
-      <c r="D178" s="60"/>
+      <c r="B178" s="74"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="74"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="42"/>
-      <c r="B179" s="60"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="60"/>
+      <c r="B179" s="74"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="74"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="42"/>
-      <c r="B180" s="60"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
+      <c r="B180" s="74"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="42"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="60"/>
+      <c r="B181" s="74"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="74"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="42"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="60"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="42"/>
-      <c r="B183" s="60"/>
-      <c r="C183" s="60"/>
-      <c r="D183" s="60"/>
+      <c r="B183" s="74"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="74"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="42"/>
-      <c r="B184" s="60"/>
-      <c r="C184" s="60"/>
-      <c r="D184" s="60"/>
+      <c r="B184" s="74"/>
+      <c r="C184" s="74"/>
+      <c r="D184" s="74"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="42"/>
-      <c r="B185" s="60"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="60"/>
+      <c r="B185" s="74"/>
+      <c r="C185" s="74"/>
+      <c r="D185" s="74"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="42"/>
-      <c r="B186" s="60"/>
-      <c r="C186" s="60"/>
-      <c r="D186" s="60"/>
+      <c r="B186" s="74"/>
+      <c r="C186" s="74"/>
+      <c r="D186" s="74"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="42"/>
-      <c r="B187" s="60"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="60"/>
+      <c r="B187" s="74"/>
+      <c r="C187" s="74"/>
+      <c r="D187" s="74"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="42"/>
-      <c r="B188" s="60"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="60"/>
+      <c r="B188" s="74"/>
+      <c r="C188" s="74"/>
+      <c r="D188" s="74"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="42"/>
-      <c r="B189" s="60"/>
-      <c r="C189" s="60"/>
-      <c r="D189" s="60"/>
+      <c r="B189" s="74"/>
+      <c r="C189" s="74"/>
+      <c r="D189" s="74"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="42"/>
-      <c r="B190" s="60"/>
-      <c r="C190" s="60"/>
-      <c r="D190" s="60"/>
+      <c r="B190" s="74"/>
+      <c r="C190" s="74"/>
+      <c r="D190" s="74"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="42"/>
-      <c r="B191" s="60"/>
-      <c r="C191" s="60"/>
-      <c r="D191" s="60"/>
+      <c r="B191" s="74"/>
+      <c r="C191" s="74"/>
+      <c r="D191" s="74"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="42"/>
-      <c r="B192" s="60"/>
-      <c r="C192" s="60"/>
-      <c r="D192" s="60"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="74"/>
+      <c r="D192" s="74"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="42"/>
-      <c r="B193" s="60"/>
-      <c r="C193" s="60"/>
-      <c r="D193" s="60"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="74"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="42"/>
-      <c r="B194" s="60"/>
-      <c r="C194" s="60"/>
-      <c r="D194" s="60"/>
+      <c r="B194" s="74"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="74"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="42"/>
-      <c r="B195" s="60"/>
-      <c r="C195" s="60"/>
-      <c r="D195" s="60"/>
+      <c r="B195" s="74"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="74"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="42"/>
-      <c r="B196" s="60"/>
-      <c r="C196" s="60"/>
-      <c r="D196" s="60"/>
+      <c r="B196" s="74"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="74"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="42"/>
-      <c r="B197" s="60"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="60"/>
+      <c r="B197" s="74"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="74"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="42"/>
-      <c r="B198" s="60"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="60"/>
+      <c r="B198" s="74"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="74"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="42"/>
-      <c r="B199" s="60"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
+      <c r="B199" s="74"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="74"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="42"/>
-      <c r="B200" s="60"/>
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
+      <c r="B200" s="74"/>
+      <c r="C200" s="74"/>
+      <c r="D200" s="74"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="42"/>
-      <c r="B201" s="60"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
+      <c r="B201" s="74"/>
+      <c r="C201" s="74"/>
+      <c r="D201" s="74"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="42"/>
-      <c r="B202" s="60"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="60"/>
+      <c r="B202" s="74"/>
+      <c r="C202" s="74"/>
+      <c r="D202" s="74"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="42"/>
-      <c r="B203" s="60"/>
-      <c r="C203" s="60"/>
-      <c r="D203" s="60"/>
+      <c r="B203" s="74"/>
+      <c r="C203" s="74"/>
+      <c r="D203" s="74"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="42"/>
-      <c r="B204" s="60"/>
-      <c r="C204" s="60"/>
-      <c r="D204" s="60"/>
+      <c r="B204" s="74"/>
+      <c r="C204" s="74"/>
+      <c r="D204" s="74"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="42"/>
-      <c r="B205" s="60"/>
-      <c r="C205" s="60"/>
-      <c r="D205" s="60"/>
+      <c r="B205" s="74"/>
+      <c r="C205" s="74"/>
+      <c r="D205" s="74"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="42"/>
-      <c r="B206" s="60"/>
-      <c r="C206" s="60"/>
-      <c r="D206" s="60"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="74"/>
+      <c r="D206" s="74"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="42"/>
-      <c r="B207" s="60"/>
-      <c r="C207" s="60"/>
-      <c r="D207" s="60"/>
+      <c r="B207" s="74"/>
+      <c r="C207" s="74"/>
+      <c r="D207" s="74"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="42"/>
-      <c r="B208" s="60"/>
-      <c r="C208" s="60"/>
-      <c r="D208" s="60"/>
+      <c r="B208" s="74"/>
+      <c r="C208" s="74"/>
+      <c r="D208" s="74"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="42"/>
-      <c r="B209" s="60"/>
-      <c r="C209" s="60"/>
-      <c r="D209" s="60"/>
+      <c r="B209" s="74"/>
+      <c r="C209" s="74"/>
+      <c r="D209" s="74"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="42"/>
-      <c r="B210" s="60"/>
-      <c r="C210" s="60"/>
-      <c r="D210" s="60"/>
+      <c r="B210" s="74"/>
+      <c r="C210" s="74"/>
+      <c r="D210" s="74"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="42"/>
-      <c r="B211" s="60"/>
-      <c r="C211" s="60"/>
-      <c r="D211" s="60"/>
+      <c r="B211" s="74"/>
+      <c r="C211" s="74"/>
+      <c r="D211" s="74"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="42"/>
-      <c r="B212" s="60"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="60"/>
+      <c r="B212" s="74"/>
+      <c r="C212" s="74"/>
+      <c r="D212" s="74"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="42"/>
-      <c r="B213" s="60"/>
-      <c r="C213" s="60"/>
-      <c r="D213" s="60"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="74"/>
+      <c r="D213" s="74"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="42"/>
-      <c r="B214" s="60"/>
-      <c r="C214" s="60"/>
-      <c r="D214" s="60"/>
+      <c r="B214" s="74"/>
+      <c r="C214" s="74"/>
+      <c r="D214" s="74"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="42"/>
-      <c r="B215" s="60"/>
-      <c r="C215" s="60"/>
-      <c r="D215" s="60"/>
+      <c r="B215" s="74"/>
+      <c r="C215" s="74"/>
+      <c r="D215" s="74"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="42"/>
-      <c r="B216" s="60"/>
-      <c r="C216" s="60"/>
-      <c r="D216" s="60"/>
+      <c r="B216" s="74"/>
+      <c r="C216" s="74"/>
+      <c r="D216" s="74"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="42"/>
-      <c r="B217" s="60"/>
-      <c r="C217" s="60"/>
-      <c r="D217" s="60"/>
+      <c r="B217" s="74"/>
+      <c r="C217" s="74"/>
+      <c r="D217" s="74"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="42"/>
-      <c r="B218" s="60"/>
-      <c r="C218" s="60"/>
-      <c r="D218" s="60"/>
+      <c r="B218" s="74"/>
+      <c r="C218" s="74"/>
+      <c r="D218" s="74"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="42"/>
-      <c r="B219" s="60"/>
-      <c r="C219" s="60"/>
-      <c r="D219" s="60"/>
+      <c r="B219" s="74"/>
+      <c r="C219" s="74"/>
+      <c r="D219" s="74"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="42"/>
-      <c r="B220" s="60"/>
-      <c r="C220" s="60"/>
-      <c r="D220" s="60"/>
+      <c r="B220" s="74"/>
+      <c r="C220" s="74"/>
+      <c r="D220" s="74"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="42"/>
-      <c r="B221" s="60"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
+      <c r="B221" s="74"/>
+      <c r="C221" s="74"/>
+      <c r="D221" s="74"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="42"/>
-      <c r="B222" s="60"/>
-      <c r="C222" s="60"/>
-      <c r="D222" s="60"/>
+      <c r="B222" s="74"/>
+      <c r="C222" s="74"/>
+      <c r="D222" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11497,43 +11662,43 @@
   <dimension ref="A1:XFD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>72</v>
+      <c r="B1" s="74" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>73</v>
+      <c r="B2" s="74" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11541,7 +11706,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11549,7 +11714,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11557,15 +11722,15 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>74</v>
+      <c r="B6" s="74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>100</v>
       </c>
     </row>
@@ -11573,7 +11738,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>39</v>
       </c>
     </row>
@@ -11581,8 +11746,8 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
-        <v>33744</v>
+      <c r="B9" s="74">
+        <v>33758</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
@@ -11605,7 +11770,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -27995,7 +28160,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
@@ -60782,12 +60947,12 @@
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="53">
         <v>0.39</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="74">
         <v>33730</v>
       </c>
       <c r="D16" s="16">
@@ -60801,7 +60966,7 @@
       <c r="B17" s="53">
         <v>0.39</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="74">
         <v>33744</v>
       </c>
       <c r="D17" s="17">
@@ -60809,7 +60974,15 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="C18" s="74">
+        <v>33758</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
@@ -60817,7 +60990,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
@@ -60825,7 +60998,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -60833,7 +61006,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -60841,7 +61014,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -60849,7 +61022,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -60857,7 +61030,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -60865,13 +61038,14 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -60879,7 +61053,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -60887,7 +61061,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -60895,7 +61069,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -60903,7 +61077,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -60911,7 +61085,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -60919,7 +61093,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -60927,7 +61101,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -60935,7 +61109,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -60943,7 +61117,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -60951,7 +61125,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -60959,7 +61133,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -60967,7 +61141,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -60975,7 +61149,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="53"/>
-      <c r="C39" s="64"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -61079,37 +61253,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>78</v>
+      <c r="B1" s="74" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>79</v>
+      <c r="B2" s="74" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>12</v>
       </c>
     </row>
@@ -61117,7 +61291,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -61125,7 +61299,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>11</v>
       </c>
     </row>
@@ -61133,7 +61307,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -61141,7 +61315,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>12000</v>
       </c>
     </row>
@@ -61149,7 +61323,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>11670</v>
       </c>
     </row>
@@ -61157,7 +61331,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="74">
         <v>330</v>
       </c>
     </row>
@@ -61181,17 +61355,17 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -61214,12 +61388,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7">
         <v>0.97250000000000003</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="75">
         <v>330</v>
       </c>
       <c r="D16" s="16">
@@ -61233,7 +61407,7 @@
       <c r="B17" s="7">
         <v>0.97250000000000003</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="75">
         <v>330</v>
       </c>
       <c r="D17" s="17">
@@ -61241,9 +61415,15 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="C18" s="75">
+        <v>330</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
@@ -61251,7 +61431,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
@@ -61259,7 +61439,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -61267,7 +61447,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -61275,7 +61455,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -61283,7 +61463,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -61291,7 +61471,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -61299,7 +61479,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -61307,7 +61487,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -61315,7 +61495,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -61323,7 +61503,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -61331,7 +61511,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -61339,7 +61519,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -61347,7 +61527,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -61355,7 +61535,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -61363,7 +61543,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -61371,7 +61551,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -61379,7 +61559,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -61387,7 +61567,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -61435,37 +61615,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>82</v>
+      <c r="B1" s="74" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>83</v>
+      <c r="B2" s="74" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>14</v>
       </c>
     </row>
@@ -61473,7 +61653,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -61481,7 +61661,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>13</v>
       </c>
     </row>
@@ -61489,7 +61669,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -61497,7 +61677,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>50000</v>
       </c>
     </row>
@@ -61505,16 +61685,16 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
-        <v>24875</v>
+      <c r="B8" s="74">
+        <v>24858</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
-        <v>17612</v>
+      <c r="B9" s="74">
+        <v>17621</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -61523,7 +61703,7 @@
       </c>
       <c r="B10" s="34">
         <f>B8/B7</f>
-        <v>0.4975</v>
+        <v>0.49715999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -61537,7 +61717,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -61547,7 +61727,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -61570,12 +61750,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7">
         <v>0.49769999999999998</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="75">
         <v>17607</v>
       </c>
       <c r="D16" s="16">
@@ -61587,28 +61767,34 @@
         <v>71</v>
       </c>
       <c r="B17" s="7">
-        <v>0.4975</v>
-      </c>
-      <c r="C17" s="65">
-        <v>17612</v>
+        <v>0.49725999999999998</v>
+      </c>
+      <c r="C17" s="75">
+        <v>17618</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.49715999999999999</v>
+      </c>
+      <c r="C18" s="74">
+        <v>17621</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
@@ -61616,7 +61802,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -61624,7 +61810,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -61632,7 +61818,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -61640,7 +61826,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -61648,7 +61834,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -61656,7 +61842,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -61664,7 +61850,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -61672,7 +61858,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -61680,7 +61866,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -61688,7 +61874,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -61696,7 +61882,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -61704,7 +61890,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -61712,7 +61898,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -61720,7 +61906,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -61728,7 +61914,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -61736,7 +61922,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -61744,7 +61930,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -61752,7 +61938,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -61794,37 +61980,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>84</v>
+      <c r="B1" s="74" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>83</v>
+      <c r="B2" s="74" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>16</v>
       </c>
     </row>
@@ -61832,7 +62018,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -61840,7 +62026,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>15</v>
       </c>
     </row>
@@ -61848,7 +62034,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -61856,7 +62042,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>50000</v>
       </c>
     </row>
@@ -61864,7 +62050,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>41290</v>
       </c>
     </row>
@@ -61872,7 +62058,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="74">
         <v>6448</v>
       </c>
     </row>
@@ -61896,7 +62082,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -61906,7 +62092,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -61929,12 +62115,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7">
         <v>0.82579999999999998</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="75">
         <v>6448</v>
       </c>
       <c r="D16" s="16">
@@ -61948,7 +62134,7 @@
       <c r="B17" s="7">
         <v>0.82579999999999998</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="75">
         <v>6448</v>
       </c>
       <c r="D17" s="17">
@@ -61956,25 +62142,33 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="C18">
+        <v>6448</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -61982,7 +62176,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -61990,7 +62184,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -61998,7 +62192,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -62006,7 +62200,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -62014,7 +62208,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -62022,7 +62216,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -62030,7 +62224,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -62038,7 +62232,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -62046,7 +62240,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -62054,7 +62248,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -62062,7 +62256,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -62070,7 +62264,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -62078,7 +62272,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -62086,7 +62280,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -62094,7 +62288,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -62102,7 +62296,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -62110,7 +62304,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -62118,7 +62312,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -62191,37 +62385,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>85</v>
+      <c r="B1" s="74" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>86</v>
+      <c r="B2" s="74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -62229,7 +62423,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -62237,7 +62431,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>17</v>
       </c>
     </row>
@@ -62245,7 +62439,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -62253,7 +62447,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>7200</v>
       </c>
     </row>
@@ -62261,7 +62455,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>3960</v>
       </c>
     </row>
@@ -62269,7 +62463,7 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="74">
         <v>12125</v>
       </c>
     </row>
@@ -62293,7 +62487,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -62303,7 +62497,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -62326,7 +62520,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="48">
         <v>0.55000000000000004</v>
@@ -62337,7 +62531,7 @@
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -62346,7 +62540,7 @@
       <c r="B17" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="75">
         <v>12125</v>
       </c>
       <c r="D17" s="17">
@@ -62354,26 +62548,33 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="60"/>
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C18" s="74">
+        <v>12125</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -62381,7 +62582,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -62389,7 +62590,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -62397,7 +62598,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -62405,7 +62606,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -62413,7 +62614,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -62421,7 +62622,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -62429,7 +62630,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -62437,7 +62638,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -62445,7 +62646,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -62453,7 +62654,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -62461,7 +62662,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -62469,7 +62670,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -62477,7 +62678,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -62485,7 +62686,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -62493,7 +62694,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -62501,7 +62702,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -62509,7 +62710,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -62517,7 +62718,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>
@@ -62551,37 +62752,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="30" style="75" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="30" style="73" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>89</v>
+      <c r="B1" s="74" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>86</v>
+      <c r="B2" s="74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="74" t="s">
         <v>20</v>
       </c>
     </row>
@@ -62589,7 +62790,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -62597,7 +62798,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>19</v>
       </c>
     </row>
@@ -62605,7 +62806,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>63</v>
       </c>
     </row>
@@ -62613,7 +62814,7 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="74">
         <v>7200</v>
       </c>
     </row>
@@ -62621,7 +62822,7 @@
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="74">
         <v>4680</v>
       </c>
     </row>
@@ -62629,8 +62830,8 @@
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="60">
-        <v>15157</v>
+      <c r="B9" s="74">
+        <v>15158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -62653,7 +62854,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -62663,7 +62864,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -62686,7 +62887,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="48">
         <v>0.65</v>
@@ -62697,7 +62898,7 @@
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -62706,39 +62907,46 @@
       <c r="B17" s="7">
         <v>0.65</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="75">
         <v>15157</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="60"/>
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="C18" s="74">
+        <v>15158</v>
+      </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="17">
         <v>5</v>
       </c>
@@ -62746,7 +62954,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
@@ -62754,7 +62962,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="17">
         <v>7</v>
       </c>
@@ -62762,7 +62970,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="17">
         <v>8</v>
       </c>
@@ -62770,7 +62978,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="17">
         <v>9</v>
       </c>
@@ -62778,7 +62986,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="17">
         <v>10</v>
       </c>
@@ -62786,7 +62994,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="17">
         <v>11</v>
       </c>
@@ -62794,7 +63002,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="17">
         <v>12</v>
       </c>
@@ -62802,7 +63010,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="17">
         <v>13</v>
       </c>
@@ -62810,7 +63018,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="17">
         <v>14</v>
       </c>
@@ -62818,7 +63026,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="17">
         <v>15</v>
       </c>
@@ -62826,7 +63034,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="17">
         <v>16</v>
       </c>
@@ -62834,7 +63042,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="17">
         <v>17</v>
       </c>
@@ -62842,7 +63050,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="17">
         <v>18</v>
       </c>
@@ -62850,7 +63058,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="17">
         <v>19</v>
       </c>
@@ -62858,7 +63066,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="17">
         <v>20</v>
       </c>
@@ -62866,7 +63074,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="17">
         <v>21</v>
       </c>
@@ -62874,7 +63082,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="17">
         <v>22</v>
       </c>
@@ -62882,7 +63090,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="65"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="17">
         <v>23</v>
       </c>

--- a/printers_v2.xlsx
+++ b/printers_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9795" tabRatio="855" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9795" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -7051,7 +7051,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -9259,7 +9259,7 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -9672,8 +9672,8 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
